--- a/Gedung D/Laporan Produksi Fine Wire Drawing - 伸线成品.xlsx
+++ b/Gedung D/Laporan Produksi Fine Wire Drawing - 伸线成品.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>JUMLAH HARIAN (kg)</t>
   </si>
@@ -228,7 +228,10 @@
     <t>456100 + 600000 + 600000 + 62600 + 28600 + 85000 + 204100 + 264000 + 233200 + 98100 + 98500</t>
   </si>
   <si>
-    <t>293400 + 234000 + 152300 + 100000 + 110000</t>
+    <t>293400 + 234000 + 152300 + 100000 + 110000 + 230200</t>
+  </si>
+  <si>
+    <t>90600 + 127200 + 600000</t>
   </si>
 </sst>
 </file>
@@ -503,9 +506,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,6 +542,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM197"/>
+  <dimension ref="A1:AM204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,23 +1423,23 @@
       <c r="AL8" s="44"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>0.127</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>20230727004</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f>SUM(696.7 + 106.1)</f>
         <v>802.80000000000007</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>70.2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>54.72</v>
       </c>
       <c r="G9" s="9"/>
@@ -1514,26 +1517,26 @@
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="17">
+      <c r="AK9" s="16">
         <f>SUM(E9:AJ9)</f>
         <v>804.19747000000018</v>
       </c>
-      <c r="AL9" s="12">
+      <c r="AL9" s="11">
         <f>AK9-D9</f>
         <v>1.3974700000001121</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>0.12</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>20230727003</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>802.8</v>
       </c>
       <c r="E10" s="9"/>
@@ -1618,26 +1621,26 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="20">
+      <c r="AK10" s="19">
         <f t="shared" ref="AK10:AK13" si="0">SUM(E10:AJ10)</f>
         <v>812.8607199999999</v>
       </c>
-      <c r="AL10" s="12">
+      <c r="AL10" s="11">
         <f t="shared" ref="AL10:AL13" si="1">AK10-D10</f>
         <v>10.060719999999947</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>0.2</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>20230727005</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>902.7</v>
       </c>
       <c r="E11" s="9"/>
@@ -1645,7 +1648,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="21"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="9">
         <f>$B19*$K64/1000</f>
         <v>97.91592</v>
@@ -1696,26 +1699,26 @@
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="17">
+      <c r="AK11" s="16">
         <f t="shared" si="0"/>
         <v>924.91680000000008</v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AL11" s="11">
         <f t="shared" si="1"/>
         <v>22.216800000000035</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>0.16</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>20230727002</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>501.5</v>
       </c>
       <c r="E12" s="9"/>
@@ -1783,26 +1786,26 @@
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="17">
+      <c r="AK12" s="16">
         <f t="shared" si="0"/>
         <v>742.06931999999995</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AL12" s="11">
         <f t="shared" si="1"/>
         <v>240.56931999999995</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>0.08</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>20230809001</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>502</v>
       </c>
       <c r="E13" s="9"/>
@@ -1864,16 +1867,19 @@
       </c>
       <c r="AI13" s="9">
         <f>B21*U197/1000</f>
-        <v>39.769589999999994</v>
-      </c>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="20">
+        <v>50.059530000000002</v>
+      </c>
+      <c r="AJ13" s="9">
+        <f>B21*U204/1000</f>
+        <v>36.555659999999996</v>
+      </c>
+      <c r="AK13" s="19">
         <f t="shared" si="0"/>
-        <v>503.12978999999996</v>
-      </c>
-      <c r="AL13" s="12">
+        <v>549.97538999999995</v>
+      </c>
+      <c r="AL13" s="11">
         <f t="shared" si="1"/>
-        <v>1.1297899999999572</v>
+        <v>47.975389999999948</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -1885,7 +1891,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="23">
         <v>0.127</v>
       </c>
       <c r="B17" s="6">
@@ -1893,7 +1899,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="23">
         <v>0.12</v>
       </c>
       <c r="B18" s="6">
@@ -1901,7 +1907,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="23">
         <v>0.2</v>
       </c>
       <c r="B19" s="6">
@@ -1909,7 +1915,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="23">
         <v>0.16</v>
       </c>
       <c r="B20" s="6">
@@ -1918,7 +1924,7 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="23">
         <v>0.08</v>
       </c>
       <c r="B21" s="6">
@@ -4526,7 +4532,7 @@
       <c r="Y112" s="29"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="24">
@@ -4729,7 +4735,7 @@
       <c r="Y119" s="29"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="24">
@@ -4930,7 +4936,7 @@
       <c r="Y126" s="29"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B127" s="24"/>
@@ -5136,7 +5142,7 @@
       <c r="Y133" s="29"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B134" s="24">
@@ -5351,7 +5357,7 @@
       <c r="Y140" s="29"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B141" s="24">
@@ -5564,7 +5570,7 @@
       <c r="Y147" s="29"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B148" s="24">
@@ -5775,7 +5781,7 @@
       <c r="Y154" s="29"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B155" s="24">
@@ -5985,7 +5991,7 @@
       <c r="Y161" s="29"/>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="24">
@@ -6198,7 +6204,7 @@
       <c r="Y168" s="29"/>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B169" s="24">
@@ -6411,7 +6417,7 @@
       <c r="Y175" s="29"/>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B176" s="24">
@@ -6618,7 +6624,7 @@
       <c r="Y182" s="29"/>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B183" s="24"/>
@@ -6816,7 +6822,7 @@
       <c r="Y189" s="29"/>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
+      <c r="A190" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B190" s="24"/>
@@ -7014,7 +7020,7 @@
       <c r="Y196" s="29"/>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A197" s="11" t="s">
+      <c r="A197" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B197" s="24"/>
@@ -7037,16 +7043,225 @@
       <c r="S197" s="24"/>
       <c r="T197" s="24"/>
       <c r="U197" s="28">
-        <f>293400 + 234000 + 152300 + 100000 + 110000</f>
-        <v>889700</v>
+        <f>293400 + 234000 + 152300 + 100000 + 110000 + 230200</f>
+        <v>1119900</v>
       </c>
       <c r="V197" s="28"/>
       <c r="W197" s="28"/>
       <c r="X197" s="28"/>
       <c r="Y197" s="28"/>
     </row>
+    <row r="198" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="30">
+        <v>45168</v>
+      </c>
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
+      <c r="J198" s="34"/>
+      <c r="K198" s="29"/>
+      <c r="L198" s="29"/>
+      <c r="M198" s="29"/>
+      <c r="N198" s="29"/>
+      <c r="O198" s="29"/>
+      <c r="P198" s="29"/>
+      <c r="Q198" s="29"/>
+      <c r="R198" s="29"/>
+      <c r="S198" s="29"/>
+      <c r="T198" s="29"/>
+      <c r="U198" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="V198" s="29"/>
+      <c r="W198" s="29"/>
+      <c r="X198" s="29"/>
+      <c r="Y198" s="29"/>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A199" s="31"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="35"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="36"/>
+      <c r="J199" s="37"/>
+      <c r="K199" s="29"/>
+      <c r="L199" s="29"/>
+      <c r="M199" s="29"/>
+      <c r="N199" s="29"/>
+      <c r="O199" s="29"/>
+      <c r="P199" s="29"/>
+      <c r="Q199" s="29"/>
+      <c r="R199" s="29"/>
+      <c r="S199" s="29"/>
+      <c r="T199" s="29"/>
+      <c r="U199" s="29"/>
+      <c r="V199" s="29"/>
+      <c r="W199" s="29"/>
+      <c r="X199" s="29"/>
+      <c r="Y199" s="29"/>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A200" s="31"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="35"/>
+      <c r="F200" s="36"/>
+      <c r="G200" s="36"/>
+      <c r="H200" s="36"/>
+      <c r="I200" s="36"/>
+      <c r="J200" s="37"/>
+      <c r="K200" s="29"/>
+      <c r="L200" s="29"/>
+      <c r="M200" s="29"/>
+      <c r="N200" s="29"/>
+      <c r="O200" s="29"/>
+      <c r="P200" s="29"/>
+      <c r="Q200" s="29"/>
+      <c r="R200" s="29"/>
+      <c r="S200" s="29"/>
+      <c r="T200" s="29"/>
+      <c r="U200" s="29"/>
+      <c r="V200" s="29"/>
+      <c r="W200" s="29"/>
+      <c r="X200" s="29"/>
+      <c r="Y200" s="29"/>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A201" s="31"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="35"/>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="36"/>
+      <c r="I201" s="36"/>
+      <c r="J201" s="37"/>
+      <c r="K201" s="29"/>
+      <c r="L201" s="29"/>
+      <c r="M201" s="29"/>
+      <c r="N201" s="29"/>
+      <c r="O201" s="29"/>
+      <c r="P201" s="29"/>
+      <c r="Q201" s="29"/>
+      <c r="R201" s="29"/>
+      <c r="S201" s="29"/>
+      <c r="T201" s="29"/>
+      <c r="U201" s="29"/>
+      <c r="V201" s="29"/>
+      <c r="W201" s="29"/>
+      <c r="X201" s="29"/>
+      <c r="Y201" s="29"/>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A202" s="31"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="35"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="36"/>
+      <c r="J202" s="37"/>
+      <c r="K202" s="29"/>
+      <c r="L202" s="29"/>
+      <c r="M202" s="29"/>
+      <c r="N202" s="29"/>
+      <c r="O202" s="29"/>
+      <c r="P202" s="29"/>
+      <c r="Q202" s="29"/>
+      <c r="R202" s="29"/>
+      <c r="S202" s="29"/>
+      <c r="T202" s="29"/>
+      <c r="U202" s="29"/>
+      <c r="V202" s="29"/>
+      <c r="W202" s="29"/>
+      <c r="X202" s="29"/>
+      <c r="Y202" s="29"/>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A203" s="31"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="38"/>
+      <c r="F203" s="39"/>
+      <c r="G203" s="39"/>
+      <c r="H203" s="39"/>
+      <c r="I203" s="39"/>
+      <c r="J203" s="40"/>
+      <c r="K203" s="29"/>
+      <c r="L203" s="29"/>
+      <c r="M203" s="29"/>
+      <c r="N203" s="29"/>
+      <c r="O203" s="29"/>
+      <c r="P203" s="29"/>
+      <c r="Q203" s="29"/>
+      <c r="R203" s="29"/>
+      <c r="S203" s="29"/>
+      <c r="T203" s="29"/>
+      <c r="U203" s="29"/>
+      <c r="V203" s="29"/>
+      <c r="W203" s="29"/>
+      <c r="X203" s="29"/>
+      <c r="Y203" s="29"/>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="26"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="27"/>
+      <c r="K204" s="24"/>
+      <c r="L204" s="24"/>
+      <c r="M204" s="24"/>
+      <c r="N204" s="24"/>
+      <c r="O204" s="24"/>
+      <c r="P204" s="24"/>
+      <c r="Q204" s="24"/>
+      <c r="R204" s="24"/>
+      <c r="S204" s="24"/>
+      <c r="T204" s="24"/>
+      <c r="U204" s="28">
+        <f>90600 + 127200 + 600000</f>
+        <v>817800</v>
+      </c>
+      <c r="V204" s="28"/>
+      <c r="W204" s="28"/>
+      <c r="X204" s="28"/>
+      <c r="Y204" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="281">
+  <mergeCells count="292">
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B198:D203"/>
+    <mergeCell ref="E198:J203"/>
+    <mergeCell ref="K198:O203"/>
+    <mergeCell ref="P198:T203"/>
+    <mergeCell ref="U198:Y203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="E204:J204"/>
+    <mergeCell ref="K204:O204"/>
+    <mergeCell ref="P204:T204"/>
+    <mergeCell ref="U204:Y204"/>
     <mergeCell ref="A191:A196"/>
     <mergeCell ref="B191:D196"/>
     <mergeCell ref="E191:J196"/>
@@ -7072,6 +7287,8 @@
     <mergeCell ref="K163:O168"/>
     <mergeCell ref="P163:T168"/>
     <mergeCell ref="U163:Y168"/>
+    <mergeCell ref="P155:T155"/>
+    <mergeCell ref="U155:Y155"/>
     <mergeCell ref="A170:A175"/>
     <mergeCell ref="B170:D175"/>
     <mergeCell ref="E170:J175"/>
@@ -7245,8 +7462,17 @@
     <mergeCell ref="K106:O106"/>
     <mergeCell ref="P106:T106"/>
     <mergeCell ref="U106:Y106"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="B163:D168"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="E127:J127"/>
+    <mergeCell ref="K127:O127"/>
+    <mergeCell ref="P127:T127"/>
+    <mergeCell ref="U127:Y127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="B128:D133"/>
+    <mergeCell ref="E128:J133"/>
+    <mergeCell ref="K128:O133"/>
+    <mergeCell ref="P128:T133"/>
+    <mergeCell ref="U128:Y133"/>
     <mergeCell ref="A114:A119"/>
     <mergeCell ref="B114:D119"/>
     <mergeCell ref="E114:J119"/>
@@ -7258,19 +7484,6 @@
     <mergeCell ref="K120:O120"/>
     <mergeCell ref="P120:T120"/>
     <mergeCell ref="U120:Y120"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="E127:J127"/>
-    <mergeCell ref="K127:O127"/>
-    <mergeCell ref="P127:T127"/>
-    <mergeCell ref="U127:Y127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="B128:D133"/>
-    <mergeCell ref="E128:J133"/>
-    <mergeCell ref="K128:O133"/>
-    <mergeCell ref="P128:T133"/>
-    <mergeCell ref="U128:Y133"/>
-    <mergeCell ref="P155:T155"/>
-    <mergeCell ref="U155:Y155"/>
     <mergeCell ref="A121:A126"/>
     <mergeCell ref="B121:D126"/>
     <mergeCell ref="E121:J126"/>
@@ -7293,6 +7506,8 @@
     <mergeCell ref="K162:O162"/>
     <mergeCell ref="P162:T162"/>
     <mergeCell ref="U162:Y162"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="B163:D168"/>
     <mergeCell ref="A184:A189"/>
     <mergeCell ref="B184:D189"/>
     <mergeCell ref="E184:J189"/>
